--- a/test_data/BCC_TestData_CSVToExcel.xlsx
+++ b/test_data/BCC_TestData_CSVToExcel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t xml:space="preserve">Iteration</t>
   </si>
@@ -179,9 +179,6 @@
     <t xml:space="preserve">0405165206</t>
   </si>
   <si>
-    <t xml:space="preserve">962159789</t>
-  </si>
-  <si>
     <t xml:space="preserve">100112195</t>
   </si>
   <si>
@@ -224,7 +221,13 @@
     <t xml:space="preserve">johnymgba.testvoqkp@mail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">CREDIT BALANCE</t>
+  </si>
+  <si>
     <t xml:space="preserve">sds@ffd.cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERDUE BALANCE</t>
   </si>
   <si>
     <t xml:space="preserve">rocky.bolba@mail.com</t>
@@ -297,7 +300,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -335,12 +338,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -472,7 +469,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -555,21 +552,21 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="E7:F7 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9148148148148"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.6037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5037037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="56.3481481481482"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,13 +837,13 @@
         <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>1023232</v>
@@ -861,19 +858,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -908,33 +905,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0111111111111"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.2592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="n">
         <v>100006408</v>
       </c>
@@ -942,7 +939,7 @@
         <v>100040245</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,10 +950,10 @@
         <v>100040450</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="n">
         <v>100006411</v>
       </c>
@@ -964,6 +961,9 @@
         <v>100040369</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>65</v>
       </c>
     </row>
@@ -977,6 +977,9 @@
       <c r="D6" s="10" t="s">
         <v>66</v>
       </c>
+      <c r="E6" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="n">
@@ -986,7 +989,10 @@
         <v>100040781</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1015,45 +1021,45 @@
   <dimension ref="B3:D7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="E7:F7 D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.2962962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1075,44 +1081,44 @@
   <dimension ref="B3:I5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="1" sqref="E7:F7 G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.36296296296296"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9592592592593"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.7925925925926"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.1555555555556"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7444444444444"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.3777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8925925925926"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.5518518518518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.0851851851852"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.0037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,13 +1126,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="n">
         <v>100007603</v>
@@ -1146,13 +1152,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="n">
         <v>100007603</v>

--- a/test_data/BCC_TestData_CSVToExcel.xlsx
+++ b/test_data/BCC_TestData_CSVToExcel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t xml:space="preserve">Iteration</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t xml:space="preserve">rocky.bolba@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERDUE BALANCE with 3 BILLS OVERDUE</t>
   </si>
   <si>
     <t xml:space="preserve">Customer          FA ID                           Mobile                   PLAN                                  ALLOWANCE à USAGE PROCESSED</t>
@@ -553,20 +556,20 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="E7:F7 E8"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5037037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="56.3481481481482"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.1888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -905,19 +908,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7:F7"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.2592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8925925925926"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.1185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,6 +996,17 @@
       </c>
       <c r="E7" s="0" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>100009282</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>100060045</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1021,45 +1035,45 @@
   <dimension ref="B3:D7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="E7:F7 D23"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.2962962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.062962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.8518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1081,44 +1095,44 @@
   <dimension ref="B3:I5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="1" sqref="E7:F7 G28"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8925925925926"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.5518518518518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.7518518518519"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.0851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.0037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8740740740741"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.3148148148148"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.2185185185185"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.6518518518518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.6703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,13 +1140,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="7" t="n">
         <v>100007603</v>
@@ -1152,13 +1166,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="n">
         <v>100007603</v>
